--- a/Dati/Nodi esplorati zona partenza.xlsx
+++ b/Dati/Nodi esplorati zona partenza.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Davide\Google Drive\Università\Magistrale primo anno\Secondo semestre\Intelligenza Artificiale\Progetto-IA\Dati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEEB0F42-5535-417F-95DA-7A2CEF5D1C71}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6D597D-1051-49D0-A9A6-247018CCA320}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="3000" xr2:uid="{9D4E1B61-BA88-4ACD-9DF0-6B1E12F81741}"/>
   </bookViews>
@@ -32,9 +32,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>Prof</t>
-  </si>
-  <si>
     <t>Nodi esplorati</t>
   </si>
   <si>
@@ -45,6 +42,9 @@
   </si>
   <si>
     <t>Partenza centro</t>
+  </si>
+  <si>
+    <t>Profondità massima</t>
   </si>
 </sst>
 </file>
@@ -68,7 +68,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -76,13 +76,193 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -401,267 +581,275 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{202CE688-47B2-471F-987F-BE9573BFBECB}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" s="9">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="B4" s="9">
+        <v>7</v>
+      </c>
+      <c r="C4" s="9">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="D3">
+      <c r="B5" s="9">
+        <v>30</v>
+      </c>
+      <c r="C5" s="9">
+        <v>50</v>
+      </c>
+      <c r="D5" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
+      <c r="B6" s="9">
+        <v>66</v>
+      </c>
+      <c r="C6" s="9">
+        <v>87</v>
+      </c>
+      <c r="D6" s="4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9">
+        <v>415</v>
+      </c>
+      <c r="C7" s="9">
+        <v>164</v>
+      </c>
+      <c r="D7" s="4">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9">
+        <v>421</v>
+      </c>
+      <c r="C8" s="9">
+        <v>590</v>
+      </c>
+      <c r="D8" s="4">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="C4">
+      <c r="B9" s="9">
+        <v>811</v>
+      </c>
+      <c r="C9" s="9">
+        <v>811</v>
+      </c>
+      <c r="D9" s="4">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9">
+        <v>3227</v>
+      </c>
+      <c r="C10" s="9">
+        <v>3227</v>
+      </c>
+      <c r="D10" s="4">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>9</v>
+      </c>
+      <c r="B11" s="9">
+        <v>3887</v>
+      </c>
+      <c r="C11" s="9">
+        <v>3887</v>
+      </c>
+      <c r="D11" s="4">
+        <v>3887</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9">
+        <v>19475</v>
+      </c>
+      <c r="C12" s="9">
+        <v>19475</v>
+      </c>
+      <c r="D12" s="4">
+        <v>19475</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
         <v>11</v>
       </c>
-      <c r="D4">
+      <c r="B13" s="9">
+        <v>39056</v>
+      </c>
+      <c r="C13" s="9">
+        <v>39056</v>
+      </c>
+      <c r="D13" s="4">
+        <v>39056</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>12</v>
+      </c>
+      <c r="B14" s="9">
+        <v>173553</v>
+      </c>
+      <c r="C14" s="9">
+        <v>173553</v>
+      </c>
+      <c r="D14" s="4">
+        <v>173553</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>13</v>
+      </c>
+      <c r="B15" s="9">
+        <v>342136</v>
+      </c>
+      <c r="C15" s="9">
+        <v>342136</v>
+      </c>
+      <c r="D15" s="4">
+        <v>342136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>14</v>
+      </c>
+      <c r="B16" s="9">
+        <v>1606975</v>
+      </c>
+      <c r="C16" s="9">
+        <v>1606975</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1606975</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>15</v>
+      </c>
+      <c r="B17" s="9">
+        <v>2113660</v>
+      </c>
+      <c r="C17" s="9">
+        <v>2113660</v>
+      </c>
+      <c r="D17" s="4">
+        <v>2113660</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>16</v>
+      </c>
+      <c r="B18" s="9">
+        <v>4109565</v>
+      </c>
+      <c r="C18" s="9">
+        <v>4109565</v>
+      </c>
+      <c r="D18" s="4">
+        <v>4109565</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>30</v>
-      </c>
-      <c r="C5">
-        <v>50</v>
-      </c>
-      <c r="D5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>66</v>
-      </c>
-      <c r="C6">
-        <v>87</v>
-      </c>
-      <c r="D6">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>415</v>
-      </c>
-      <c r="C7">
-        <v>164</v>
-      </c>
-      <c r="D7">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>421</v>
-      </c>
-      <c r="C8">
-        <v>590</v>
-      </c>
-      <c r="D8">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>811</v>
-      </c>
-      <c r="C9">
-        <v>811</v>
-      </c>
-      <c r="D9">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>3227</v>
-      </c>
-      <c r="C10">
-        <v>3227</v>
-      </c>
-      <c r="D10">
-        <v>3227</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>3887</v>
-      </c>
-      <c r="C11">
-        <v>3887</v>
-      </c>
-      <c r="D11">
-        <v>3887</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>19475</v>
-      </c>
-      <c r="C12">
-        <v>19475</v>
-      </c>
-      <c r="D12">
-        <v>19475</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>39056</v>
-      </c>
-      <c r="C13">
-        <v>39056</v>
-      </c>
-      <c r="D13">
-        <v>39056</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>173553</v>
-      </c>
-      <c r="C14">
-        <v>173553</v>
-      </c>
-      <c r="D14">
-        <v>173553</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>342136</v>
-      </c>
-      <c r="C15">
-        <v>342136</v>
-      </c>
-      <c r="D15">
-        <v>342136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>1606975</v>
-      </c>
-      <c r="C16">
-        <v>1606975</v>
-      </c>
-      <c r="D16">
-        <v>1606975</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>2113660</v>
-      </c>
-      <c r="C17">
-        <v>2113660</v>
-      </c>
-      <c r="D17">
-        <v>2113660</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>4109565</v>
-      </c>
-      <c r="C18">
-        <v>4109565</v>
-      </c>
-      <c r="D18">
-        <v>4109565</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="C19">
+      <c r="B19" s="10">
+        <v>37864245</v>
+      </c>
+      <c r="C19" s="10">
+        <v>37864245</v>
+      </c>
+      <c r="D19" s="5">
         <v>37864245</v>
       </c>
     </row>
